--- a/ErrorUnion.xlsx
+++ b/ErrorUnion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Robots\uipath\ACTFINAN-GBO_Descarga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Robots\uipath\RPA3 - OCEANS\ACTFINAN-GBO_Descarga_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435B1F8F-E49A-40AA-AE16-B98F8E401DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BA06C4-4C3A-4733-AB1D-1FAA694602DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2745" yWindow="2160" windowWidth="15375" windowHeight="4515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,18 +215,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88553505-9792-42AE-9BA3-4257731F0101}" name="Errores" displayName="Errores" ref="A1:I11" totalsRowShown="0">
-  <autoFilter ref="A1:I11" xr:uid="{88553505-9792-42AE-9BA3-4257731F0101}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{340A7B5A-A8BB-4F71-9774-D7AD77C1FEEB}" name="Errores" displayName="Errores" ref="A1:I11" totalsRowShown="0">
+  <autoFilter ref="A1:I11" xr:uid="{340A7B5A-A8BB-4F71-9774-D7AD77C1FEEB}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C2A4893A-FAA7-4DC1-A297-87A1EA66D903}" name="GrupoUnion"/>
-    <tableColumn id="2" xr3:uid="{D420C8F6-BA1F-4D28-9A8E-A85E5C1BE2C4}" name="OrdenUnion"/>
-    <tableColumn id="3" xr3:uid="{4DEBB8FE-EF7B-4230-81DE-50FD3BC36F61}" name="ResumenUnion"/>
-    <tableColumn id="4" xr3:uid="{42863452-FF98-474D-A5CB-81C17285697C}" name="Id"/>
-    <tableColumn id="5" xr3:uid="{6CF7E570-C9F4-4B4A-9E84-3AFD563F0D67}" name="IdDelPJ"/>
-    <tableColumn id="6" xr3:uid="{1EEB1819-76CC-4E75-AC10-6D4D87ADCB9B}" name="TipoDocumentalSVH"/>
-    <tableColumn id="7" xr3:uid="{75335E18-E672-481B-9D02-70DADEF65A85}" name="EmailIdKey"/>
-    <tableColumn id="8" xr3:uid="{D271C90B-054E-47D6-8325-82BC62BA129F}" name="ResumenSolicitud"/>
-    <tableColumn id="9" xr3:uid="{CC0CE178-0129-4C7D-A188-B33538162F32}" name="FechaUnion"/>
+    <tableColumn id="1" xr3:uid="{C95530A7-7F1D-49D8-8C67-8648075D3770}" name="GrupoUnion"/>
+    <tableColumn id="2" xr3:uid="{315F3C2E-40B1-49CC-A701-F81D51388CA1}" name="OrdenUnion"/>
+    <tableColumn id="3" xr3:uid="{2EED0EDD-7401-4A80-BBFB-780173241A81}" name="ResumenUnion"/>
+    <tableColumn id="4" xr3:uid="{E0F9EB29-7E34-4706-867B-9C2918E49D4B}" name="Id"/>
+    <tableColumn id="5" xr3:uid="{4F97ADE8-0ABD-4B83-A282-0031DE310912}" name="IdDelPJ"/>
+    <tableColumn id="6" xr3:uid="{220FEC0D-6BA7-407A-B7DD-352D856D3C0F}" name="TipoDocumentalSVH"/>
+    <tableColumn id="7" xr3:uid="{C4B00EB9-CAD4-444B-BF32-B3A16B653CE0}" name="EmailIdKey"/>
+    <tableColumn id="8" xr3:uid="{AB9E842A-8638-4E69-9405-D6A75A1495B8}" name="ResumenSolicitud"/>
+    <tableColumn id="9" xr3:uid="{C3325EDB-E461-42CE-A6E0-0FC18244479D}" name="FechaUnion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/ErrorUnion.xlsx
+++ b/ErrorUnion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Robots\uipath\RPA3 - OCEANS\ACTFINAN-GBO_Descarga_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BA06C4-4C3A-4733-AB1D-1FAA694602DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E961586E-CD90-441C-9AE9-9C7E4BE2A0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2745" yWindow="2160" windowWidth="15375" windowHeight="4515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="84">
   <si>
     <t>GrupoUnion</t>
   </si>
@@ -49,118 +49,229 @@
     <t>FechaUnion</t>
   </si>
   <si>
-    <t>94086</t>
-  </si>
-  <si>
-    <t>4671/01382029</t>
+    <t>60443</t>
+  </si>
+  <si>
+    <t>6558/01343698</t>
+  </si>
+  <si>
+    <t>Requerimiento. Pago</t>
+  </si>
+  <si>
+    <t>40143</t>
+  </si>
+  <si>
+    <t>Requerimiento 22/03/2022 acuerda notificacion por edictos</t>
+  </si>
+  <si>
+    <t>86569</t>
+  </si>
+  <si>
+    <t>2659/01029874</t>
+  </si>
+  <si>
+    <t>Escritos. Trámite</t>
+  </si>
+  <si>
+    <t>9080</t>
+  </si>
+  <si>
+    <t>liquidacion intereses</t>
+  </si>
+  <si>
+    <t>86570</t>
+  </si>
+  <si>
+    <t>Factura letrado</t>
+  </si>
+  <si>
+    <t>minuta honorarios letrado</t>
+  </si>
+  <si>
+    <t>86571</t>
+  </si>
+  <si>
+    <t>Factura procurador</t>
+  </si>
+  <si>
+    <t>minuta procurador</t>
+  </si>
+  <si>
+    <t>86801</t>
+  </si>
+  <si>
+    <t>0485/00973267</t>
+  </si>
+  <si>
+    <t>Resolución. Averiguación. Patrimonial</t>
+  </si>
+  <si>
+    <t>14695</t>
+  </si>
+  <si>
+    <t>consulta integral patrimonio</t>
+  </si>
+  <si>
+    <t>86802</t>
+  </si>
+  <si>
+    <t>86803</t>
+  </si>
+  <si>
+    <t>86804</t>
+  </si>
+  <si>
+    <t>2972/01027020</t>
+  </si>
+  <si>
+    <t>14696</t>
+  </si>
+  <si>
+    <t>86805</t>
+  </si>
+  <si>
+    <t>86806</t>
+  </si>
+  <si>
+    <t>86807</t>
+  </si>
+  <si>
+    <t>86808</t>
   </si>
   <si>
     <t>Justificante. Notificacion. Juzgado</t>
   </si>
   <si>
-    <t>60594</t>
-  </si>
-  <si>
-    <t>Justificante Notificacion juzgado</t>
-  </si>
-  <si>
-    <t>94489</t>
-  </si>
-  <si>
-    <t>8326/01413289</t>
+    <t>caratula lexnet</t>
+  </si>
+  <si>
+    <t>86812</t>
+  </si>
+  <si>
+    <t>5900/01043046</t>
+  </si>
+  <si>
+    <t>14742</t>
+  </si>
+  <si>
+    <t>86813</t>
+  </si>
+  <si>
+    <t>86814</t>
+  </si>
+  <si>
+    <t>86818</t>
+  </si>
+  <si>
+    <t>86819</t>
+  </si>
+  <si>
+    <t>86821</t>
+  </si>
+  <si>
+    <t>86822</t>
+  </si>
+  <si>
+    <t>86824</t>
+  </si>
+  <si>
+    <t>86825</t>
+  </si>
+  <si>
+    <t>86826</t>
+  </si>
+  <si>
+    <t>86827</t>
+  </si>
+  <si>
+    <t>86828</t>
+  </si>
+  <si>
+    <t>86857</t>
+  </si>
+  <si>
+    <t>3278/00877645</t>
+  </si>
+  <si>
+    <t>14939</t>
+  </si>
+  <si>
+    <t>Resultado Aeriguacion Patrimonial</t>
+  </si>
+  <si>
+    <t>86873</t>
+  </si>
+  <si>
+    <t>Justificante. Transferencia</t>
+  </si>
+  <si>
+    <t>Transferencia de 325,27 euros</t>
+  </si>
+  <si>
+    <t>86874</t>
+  </si>
+  <si>
+    <t>transferencia 118,17 euros</t>
+  </si>
+  <si>
+    <t>92398</t>
+  </si>
+  <si>
+    <t>5473/00946151</t>
+  </si>
+  <si>
+    <t>59842</t>
+  </si>
+  <si>
+    <t>96826</t>
+  </si>
+  <si>
+    <t>5425/01296344</t>
+  </si>
+  <si>
+    <t>62099</t>
+  </si>
+  <si>
+    <t>Escrito 21/07/2022 Concurs num. 544/2012-C2 Concursada: TALLERES PLAIN, SA Tel. 934 022 652  Fax orgt.assessoria@diba. 93 220 32 35 cat http://orgt.diba. cat / Compareixença de l’Organisme de gestio tributaria de la Diputacio de Barcelona, ORGT</t>
+  </si>
+  <si>
+    <t>99019</t>
+  </si>
+  <si>
+    <t>7509/01396174</t>
   </si>
   <si>
     <t>Justificante. Presentación.Escritos. Trámite</t>
   </si>
   <si>
-    <t>60794</t>
-  </si>
-  <si>
-    <t>Justificante. Presentacion.Escritos. Tramite 18/07/2022 Presentacion telematica de escritos</t>
-  </si>
-  <si>
-    <t>94490</t>
-  </si>
-  <si>
-    <t>Resolución. Procesal</t>
-  </si>
-  <si>
-    <t>Resolucion. Procesal 22/05/2022 DECLARAR LA INADMISIÓN A TRÁMITE, por extemporaneo, del recurso de alzada formulado contra la diligencia de 13/01/2022, de embargo de salarios y prestaciones economicas de la empresa DISTRIBUCIONS I SERVEIS CARROÑADA. (Consta que el recurrente causo baja en la empresa con fecha 09/01/2022).</t>
-  </si>
-  <si>
-    <t>94491</t>
-  </si>
-  <si>
-    <t>Escritos. Trámite</t>
-  </si>
-  <si>
-    <t>Escritos. Tramite 30/04/2022 DEMANDADO SOLICITA Tenga por presentado este escrito junto con los documentos que se acompañan y en sus meritos se acuerde dejar sin efecto el mandamiento a persona o entidad pagador de la diligencia de embargo de sueldos y salarios, derivados del expediente de referencia</t>
-  </si>
-  <si>
-    <t>94493</t>
-  </si>
-  <si>
-    <t>Escritos. Tramite 18/07/2022 BBVA SOLICITA AL JUZGADO.- tenga por presentado este escrito junto con los documentos que se acompañan y en sus meritos acuerde remitir oficio a TGSS en el sentido de comunicarle que: Debe proceder a anular la diligencia de embargo emitida contra don Oscar Uceda Marquez Y que no proceda a dictar diligencia de embargo alguna</t>
-  </si>
-  <si>
-    <t>98070</t>
-  </si>
-  <si>
-    <t>3800/01414465</t>
-  </si>
-  <si>
-    <t>Resolución. Averiguación. Patrimonial</t>
-  </si>
-  <si>
-    <t>62811</t>
-  </si>
-  <si>
-    <t>Resolucion. Averiguacion. Patrimonial 01/01/2020 Resultado averiguacion domiciliaria</t>
-  </si>
-  <si>
-    <t>98071</t>
-  </si>
-  <si>
-    <t>Diligencia. Ordenación</t>
-  </si>
-  <si>
-    <t>Diligencia. Ordenacion 27/02/2020 La anterior diligencia negativa de requerimiento de pago unase, constando en estas actuaciones el domicilio de FEDERICO JAVIER ONTAÑON GOMEZ, y de conformidad con lo dispuesto en el articulo 156.1 LEC, acuerdo recabar la informacion necesaria a traves del PNJ, y/o vista la informacion obtenida librese nueva cedula al SCACE para la practica de la diligencia en el domicilio que consta en INE y con su resultado se acordara.</t>
-  </si>
-  <si>
-    <t>98685</t>
-  </si>
-  <si>
-    <t>6621/01507767</t>
-  </si>
-  <si>
-    <t>Providencia</t>
-  </si>
-  <si>
-    <t>63289</t>
-  </si>
-  <si>
-    <t>Providencia Habiendo presentado escritos el Abogado del Estado, y los procuradores Sres. FRANCISCO JAVIER TOUCEDO REY y CARLOS MONTERO REITER, acuerdo:  -  Tener por personados al Abogado del Estado, en nombre y representacion de la ADMINISTRACION GENERAL DEL ESTADO y el INSTITUTO DE CRÉDITO OFICIAL, y a los procuradores Sres. Toucedo Rey y Montero Reiter, en nombre y representacion de BBVA, S.A. y DEUTSCHE BANK, S.A.E. respectivamente.  - Entender con los mismos la presente y las sucesivas actuaciones previstas por la ley.</t>
-  </si>
-  <si>
-    <t>98733</t>
-  </si>
-  <si>
-    <t>4609/01361634</t>
-  </si>
-  <si>
-    <t>Testimonio. Decreto. Adjudicación</t>
-  </si>
-  <si>
-    <t>63307</t>
-  </si>
-  <si>
-    <t>Testimonio. Decreto. Adjudicacion 08/03/2022 1.- Adjudicar al mejor postor NUEVO DESARROLLO INMOBILIARIO SL, con C. I. F. nº B06683718 y domicilio social en C/ John Lennon nº1 de Merida, la finca objeto de autos por la suma de 80.375,00 euros, importe superior a lo reclamado por todos los conceptos que asciende a 28.162,29 euros de principal, (desglosados en capital pendiente de amortizar: 27.285,28 euros, intereses ordinarios 781,98 euros e intereses de demora 94,93 euros) y lo reclamado esta tambien inferior al limite de cobertura hipotecaria en cuanto a principal asciende dicho limite hasta 46.666,47 € y en cuanto a intereses ordinarios asciende a 7.821,30 euros. Respecto a los intereses tasados y aprobados ascienden a 3.592,38 euros inferior al limite de cobertura hipotecaria que es de 8.225,43 euros y las Costas aprobadas asciende a 4.136,99 euros son inferiores al limite de cobertura hipotecaria que asciende a 4.958,35 ¦ euros Existe un sobrante que resta a disposicion de los acreedores posteriores que hagan uso de su derecho y que asciende a 44.483,34 €.</t>
-  </si>
-  <si>
-    <t>98734</t>
-  </si>
-  <si>
-    <t>Justificante Notificacion juzgado 20/07/2022 Mensaje LexNET - Notificacion</t>
+    <t>63478</t>
+  </si>
+  <si>
+    <t>Justificante. Presentacion.Escritos. Tramite 29/07/2022</t>
+  </si>
+  <si>
+    <t>99082</t>
+  </si>
+  <si>
+    <t>4469/01514389</t>
+  </si>
+  <si>
+    <t>Proyecto. Inventario. Lista. Acreedores</t>
+  </si>
+  <si>
+    <t>63509</t>
+  </si>
+  <si>
+    <t>Lista acreedores 481/2022</t>
+  </si>
+  <si>
+    <t>99084</t>
+  </si>
+  <si>
+    <t>Certificación. Deuda</t>
+  </si>
+  <si>
+    <t>Certificacion deuda a 03/08/2022 Resumen negocio BBVA</t>
   </si>
 </sst>
 </file>
@@ -215,18 +326,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{340A7B5A-A8BB-4F71-9774-D7AD77C1FEEB}" name="Errores" displayName="Errores" ref="A1:I11" totalsRowShown="0">
-  <autoFilter ref="A1:I11" xr:uid="{340A7B5A-A8BB-4F71-9774-D7AD77C1FEEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF929B71-5944-4D39-94B3-F1D51BE7D51C}" name="Errores" displayName="Errores" ref="A1:I33" totalsRowShown="0">
+  <autoFilter ref="A1:I33" xr:uid="{EF929B71-5944-4D39-94B3-F1D51BE7D51C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C95530A7-7F1D-49D8-8C67-8648075D3770}" name="GrupoUnion"/>
-    <tableColumn id="2" xr3:uid="{315F3C2E-40B1-49CC-A701-F81D51388CA1}" name="OrdenUnion"/>
-    <tableColumn id="3" xr3:uid="{2EED0EDD-7401-4A80-BBFB-780173241A81}" name="ResumenUnion"/>
-    <tableColumn id="4" xr3:uid="{E0F9EB29-7E34-4706-867B-9C2918E49D4B}" name="Id"/>
-    <tableColumn id="5" xr3:uid="{4F97ADE8-0ABD-4B83-A282-0031DE310912}" name="IdDelPJ"/>
-    <tableColumn id="6" xr3:uid="{220FEC0D-6BA7-407A-B7DD-352D856D3C0F}" name="TipoDocumentalSVH"/>
-    <tableColumn id="7" xr3:uid="{C4B00EB9-CAD4-444B-BF32-B3A16B653CE0}" name="EmailIdKey"/>
-    <tableColumn id="8" xr3:uid="{AB9E842A-8638-4E69-9405-D6A75A1495B8}" name="ResumenSolicitud"/>
-    <tableColumn id="9" xr3:uid="{C3325EDB-E461-42CE-A6E0-0FC18244479D}" name="FechaUnion"/>
+    <tableColumn id="1" xr3:uid="{012A4B7B-13AB-4A8E-94C2-8DB40DAE66EF}" name="GrupoUnion"/>
+    <tableColumn id="2" xr3:uid="{08B40C53-5942-4C9D-9F60-266FFD0B8704}" name="OrdenUnion"/>
+    <tableColumn id="3" xr3:uid="{38C486AA-302D-4E2D-9F69-5BFEAE7ACEC7}" name="ResumenUnion"/>
+    <tableColumn id="4" xr3:uid="{1F36E6B7-D372-49BB-BB86-B4F265DEB60D}" name="Id"/>
+    <tableColumn id="5" xr3:uid="{C9A2452F-D55A-4BFC-A0D0-00A377F9F5E9}" name="IdDelPJ"/>
+    <tableColumn id="6" xr3:uid="{A7448D96-E139-4CB4-BF89-AC5347845335}" name="TipoDocumentalSVH"/>
+    <tableColumn id="7" xr3:uid="{768C8FF5-67CD-4CFB-89E6-7B2976F6FBEA}" name="EmailIdKey"/>
+    <tableColumn id="8" xr3:uid="{CEF84C50-52C8-48C9-A5AC-4B0DB44E949B}" name="ResumenSolicitud"/>
+    <tableColumn id="9" xr3:uid="{35CF570A-A474-4898-AD93-3C4E27B66DFB}" name="FechaUnion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -517,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -592,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -618,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -644,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -670,25 +781,25 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -696,25 +807,25 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -722,25 +833,25 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -748,25 +859,25 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -774,25 +885,25 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -800,25 +911,597 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
         <v>43</v>
       </c>
-      <c r="H11" t="s">
-        <v>46</v>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/ErrorUnion.xlsx
+++ b/ErrorUnion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Robots\uipath\RPA2 - OCEANS - Subida a HRC\ACTFINAN-GBO_Descarga_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3957E248-3DAC-48C5-8EA5-F31AD3CBD07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8864A652-D12A-4703-94D5-C78D74AFDEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
   <si>
     <t>GrupoUnion</t>
   </si>
@@ -64,19 +64,169 @@
     <t>Requerimiento 22/03/2022 acuerda notificacion por edictos</t>
   </si>
   <si>
-    <t>98087</t>
-  </si>
-  <si>
-    <t>1275/01498691</t>
-  </si>
-  <si>
-    <t>Diligencia. Ordenación</t>
-  </si>
-  <si>
-    <t>62817</t>
-  </si>
-  <si>
-    <t>Diligencia. Ordenacion 28/07/2022 Por recibido el anterior escrito presentado por la procuradora DÑA. DOLORES ALCOCER ANTON, unase a los autos. Conforme a lo solicitado, procedase a realizar nueva consulta telematica a las bases de datos existentes en el Punto Neutro Judicial facilitado por el Consejo General del Poder Judicial a fin de averiguar otras posibles direcciones de la parte demandada dando traslado de su resultado a la parte demandante y haciendole saber las obligaciones legales que contrae conforme a la Ley de Proteccion de Datos. A la vista de su resultado, intentese el requerimiento en la calle de Guzman el Bueno, nº 110 C.P.:28003 Madrid (Madrid).</t>
+    <t>86801</t>
+  </si>
+  <si>
+    <t>0485/00973267</t>
+  </si>
+  <si>
+    <t>Resolución. Averiguación. Patrimonial</t>
+  </si>
+  <si>
+    <t>14695</t>
+  </si>
+  <si>
+    <t>consulta integral patrimonio</t>
+  </si>
+  <si>
+    <t>86802</t>
+  </si>
+  <si>
+    <t>86803</t>
+  </si>
+  <si>
+    <t>86804</t>
+  </si>
+  <si>
+    <t>2972/01027020</t>
+  </si>
+  <si>
+    <t>14696</t>
+  </si>
+  <si>
+    <t>86805</t>
+  </si>
+  <si>
+    <t>86806</t>
+  </si>
+  <si>
+    <t>86807</t>
+  </si>
+  <si>
+    <t>86808</t>
+  </si>
+  <si>
+    <t>Justificante. Notificacion. Juzgado</t>
+  </si>
+  <si>
+    <t>caratula lexnet</t>
+  </si>
+  <si>
+    <t>86812</t>
+  </si>
+  <si>
+    <t>5900/01043046</t>
+  </si>
+  <si>
+    <t>14742</t>
+  </si>
+  <si>
+    <t>86813</t>
+  </si>
+  <si>
+    <t>86814</t>
+  </si>
+  <si>
+    <t>86818</t>
+  </si>
+  <si>
+    <t>86819</t>
+  </si>
+  <si>
+    <t>86821</t>
+  </si>
+  <si>
+    <t>86822</t>
+  </si>
+  <si>
+    <t>86824</t>
+  </si>
+  <si>
+    <t>86825</t>
+  </si>
+  <si>
+    <t>86826</t>
+  </si>
+  <si>
+    <t>86827</t>
+  </si>
+  <si>
+    <t>86828</t>
+  </si>
+  <si>
+    <t>86857</t>
+  </si>
+  <si>
+    <t>3278/00877645</t>
+  </si>
+  <si>
+    <t>14939</t>
+  </si>
+  <si>
+    <t>Resultado Aeriguacion Patrimonial</t>
+  </si>
+  <si>
+    <t>86873</t>
+  </si>
+  <si>
+    <t>Justificante. Transferencia</t>
+  </si>
+  <si>
+    <t>Transferencia de 325,27 euros</t>
+  </si>
+  <si>
+    <t>86874</t>
+  </si>
+  <si>
+    <t>transferencia 118,17 euros</t>
+  </si>
+  <si>
+    <t>92398</t>
+  </si>
+  <si>
+    <t>5473/00946151</t>
+  </si>
+  <si>
+    <t>59842</t>
+  </si>
+  <si>
+    <t>99019</t>
+  </si>
+  <si>
+    <t>7509/01396174</t>
+  </si>
+  <si>
+    <t>Justificante. Presentación.Escritos. Trámite</t>
+  </si>
+  <si>
+    <t>63478</t>
+  </si>
+  <si>
+    <t>Justificante. Presentacion.Escritos. Tramite 29/07/2022</t>
+  </si>
+  <si>
+    <t>99082</t>
+  </si>
+  <si>
+    <t>4469/01514389</t>
+  </si>
+  <si>
+    <t>Proyecto. Inventario. Lista. Acreedores</t>
+  </si>
+  <si>
+    <t>63509</t>
+  </si>
+  <si>
+    <t>Lista acreedores 481/2022</t>
+  </si>
+  <si>
+    <t>99084</t>
+  </si>
+  <si>
+    <t>Certificación. Deuda</t>
+  </si>
+  <si>
+    <t>Certificacion deuda a 03/08/2022 Resumen negocio BBVA</t>
   </si>
 </sst>
 </file>
@@ -131,18 +281,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC86F7F0-2CEE-45CB-8620-28346783AE59}" name="Errores" displayName="Errores" ref="A1:I3" totalsRowShown="0">
-  <autoFilter ref="A1:I3" xr:uid="{FC86F7F0-2CEE-45CB-8620-28346783AE59}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F8A6F2B-2D81-48CA-A053-D820005EFE4D}" name="Errores" displayName="Errores" ref="A1:I29" totalsRowShown="0">
+  <autoFilter ref="A1:I29" xr:uid="{9F8A6F2B-2D81-48CA-A053-D820005EFE4D}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{47D183E7-06C9-44B1-B351-A53187D107B5}" name="GrupoUnion"/>
-    <tableColumn id="2" xr3:uid="{4DABFCA1-429C-41E2-A3D6-512E73998B5A}" name="OrdenUnion"/>
-    <tableColumn id="3" xr3:uid="{DEF113CB-77FD-417A-89CA-15570EE33813}" name="ResumenUnion"/>
-    <tableColumn id="4" xr3:uid="{7D426007-0F84-4FD0-B8C4-F37C0A39AFF0}" name="Id"/>
-    <tableColumn id="5" xr3:uid="{EFB45822-CDA2-49CA-ADFB-282D61986233}" name="IdDelPJ"/>
-    <tableColumn id="6" xr3:uid="{8D82034D-29A2-43CD-954E-829725AB2C03}" name="TipoDocumentalSVH"/>
-    <tableColumn id="7" xr3:uid="{1C4210B8-CE8D-404A-A1F0-AC4F73AF1B85}" name="EmailIdKey"/>
-    <tableColumn id="8" xr3:uid="{92B3F1CE-BA9F-4A69-8633-100E826AF7B9}" name="ResumenSolicitud"/>
-    <tableColumn id="9" xr3:uid="{CE8E0FFB-FF0B-4678-8411-A43D118B2EDE}" name="FechaUnion"/>
+    <tableColumn id="1" xr3:uid="{CF147C58-B882-4A3C-A85E-99A27118A2C5}" name="GrupoUnion"/>
+    <tableColumn id="2" xr3:uid="{D7ED0059-3F49-425A-84B3-2805F296E9A8}" name="OrdenUnion"/>
+    <tableColumn id="3" xr3:uid="{6A566DB1-BE29-4A67-A91A-161AB4B76E74}" name="ResumenUnion"/>
+    <tableColumn id="4" xr3:uid="{39F3D718-456A-44AD-B8AA-B96A93A44340}" name="Id"/>
+    <tableColumn id="5" xr3:uid="{944A2C61-231C-478B-BD38-1C63BDDD0377}" name="IdDelPJ"/>
+    <tableColumn id="6" xr3:uid="{BE128D40-2D24-4786-88B4-D8AB3DB11437}" name="TipoDocumentalSVH"/>
+    <tableColumn id="7" xr3:uid="{32A064F2-A68F-4998-BC94-F5A8C72FC6FB}" name="EmailIdKey"/>
+    <tableColumn id="8" xr3:uid="{9FF54A0B-FF49-4A10-B68C-BEA085065EA7}" name="ResumenSolicitud"/>
+    <tableColumn id="9" xr3:uid="{598FF173-857C-4867-A959-D3FED56EAE3B}" name="FechaUnion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -433,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -527,6 +677,682 @@
       </c>
       <c r="H3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/ErrorUnion.xlsx
+++ b/ErrorUnion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Robots\uipath\RPA2 - OCEANS - Subida a HRC\ACTFINAN-GBO_Descarga_Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Robots\uipath\RPA3 - OCEANS\ACTFINAN-GBO_Descarga_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8864A652-D12A-4703-94D5-C78D74AFDEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC8C63B-A1B1-4512-853D-912E2017419B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2745" yWindow="2160" windowWidth="15375" windowHeight="4515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>GrupoUnion</t>
   </si>
@@ -49,6 +49,48 @@
     <t>FechaUnion</t>
   </si>
   <si>
+    <t>100486</t>
+  </si>
+  <si>
+    <t>3350/01499297</t>
+  </si>
+  <si>
+    <t>Diligencia. Ordenación</t>
+  </si>
+  <si>
+    <t>64994</t>
+  </si>
+  <si>
+    <t>Diligencia. Ordenacion 21/03/2022 Se acuerda dar cuenta a la Juez para que pueda apreciar el posible caracter abusivo de alguna de las clausulas que constituya el fundamento de la peticion monitoria</t>
+  </si>
+  <si>
+    <t>101571</t>
+  </si>
+  <si>
+    <t>6533/01364534</t>
+  </si>
+  <si>
+    <t>65420</t>
+  </si>
+  <si>
+    <t>Diligencia. Ordenacion 10/06/2022 Se tienen por hechas las manifestaciones , por evacuado el requerimiento efectuado y se tiene por comparecido y parte apelante a DIVARIAN PROPIEDAD, SA, segun acredita mediante copia de la escritura de poder para pleitos que se une a las actuaciones a los efectos oportunos, entiendanse con el las sucesivas diligencias.</t>
+  </si>
+  <si>
+    <t>101572</t>
+  </si>
+  <si>
+    <t>Escritos. Trámite</t>
+  </si>
+  <si>
+    <t>Escritos. Tramite 13/06/2022 BBVA solicitud personacion</t>
+  </si>
+  <si>
+    <t>101573</t>
+  </si>
+  <si>
+    <t>Diligencia. Ordenacion 16/06/2022 Se tienen por hechas las manifestaciones, y visto lo actuado, se deja sin efecto la diligencia de ordenacion de fecha 10/06/2022 y estese a lo acordado en diligencia de ordenacion de fecha 30/05/2022, en la que se tuvo a BBVA, por comparecido como parte apelante.</t>
+  </si>
+  <si>
     <t>60443</t>
   </si>
   <si>
@@ -112,48 +154,6 @@
     <t>caratula lexnet</t>
   </si>
   <si>
-    <t>86812</t>
-  </si>
-  <si>
-    <t>5900/01043046</t>
-  </si>
-  <si>
-    <t>14742</t>
-  </si>
-  <si>
-    <t>86813</t>
-  </si>
-  <si>
-    <t>86814</t>
-  </si>
-  <si>
-    <t>86818</t>
-  </si>
-  <si>
-    <t>86819</t>
-  </si>
-  <si>
-    <t>86821</t>
-  </si>
-  <si>
-    <t>86822</t>
-  </si>
-  <si>
-    <t>86824</t>
-  </si>
-  <si>
-    <t>86825</t>
-  </si>
-  <si>
-    <t>86826</t>
-  </si>
-  <si>
-    <t>86827</t>
-  </si>
-  <si>
-    <t>86828</t>
-  </si>
-  <si>
     <t>86857</t>
   </si>
   <si>
@@ -181,28 +181,43 @@
     <t>transferencia 118,17 euros</t>
   </si>
   <si>
-    <t>92398</t>
-  </si>
-  <si>
-    <t>5473/00946151</t>
-  </si>
-  <si>
-    <t>59842</t>
-  </si>
-  <si>
-    <t>99019</t>
-  </si>
-  <si>
-    <t>7509/01396174</t>
-  </si>
-  <si>
-    <t>Justificante. Presentación.Escritos. Trámite</t>
-  </si>
-  <si>
-    <t>63478</t>
-  </si>
-  <si>
-    <t>Justificante. Presentacion.Escritos. Tramite 29/07/2022</t>
+    <t>91398</t>
+  </si>
+  <si>
+    <t>6415/01411187</t>
+  </si>
+  <si>
+    <t>59377</t>
+  </si>
+  <si>
+    <t>Diligencia. Ordenacion 07/07/2022 Por presentado el anterior escrito por la Procuradora MATILDE RIAL TRUEBA, unase a los autos de su razon; se tiene por comparecida y parte a dicha Procuradora, en nombre y representacion de INVESTCAPITAL LTD, con la que se entenderan todas las notificaciones y actuaciones, en la forma prevenida por la Ley. Se tienen por comunicados los creditos por dicha Sociedad, adquiridos por cesion de Caixabank Consumer Finance EFC S.A., lo que se pone en conocimiento de la Administracion concursal, a los efectos legales procedentes.</t>
+  </si>
+  <si>
+    <t>91750</t>
+  </si>
+  <si>
+    <t>4021/00090412</t>
+  </si>
+  <si>
+    <t>59570</t>
+  </si>
+  <si>
+    <t>Diligencia. Ordenacion. 08/07/2022. Conforme a lo solicitado, procedase a la averiguacion telematica a traves del Punto Neutro Judicial y TGSS de bienes o derechos de los ejecutados de caracter economico y patrimonial, dando traslado de su resultado al ejecutante haciendole saber que conforme a la L.O. 15/1999 de 13 de diciembre de Proteccion de Datos de Caracter personal y demas legislacion vigente en la materia, los datos contenidos en esta comunicacion y en la documentacion adjunta, son confidenciales, quedando prohibida su transmision o comunicacion publica por cualquier medio o procedimiento, y debiendo ser tratados exclusivamente para los fines propios de la Administracion de Justicia.</t>
+  </si>
+  <si>
+    <t>97916</t>
+  </si>
+  <si>
+    <t>0664/01464976</t>
+  </si>
+  <si>
+    <t>Resolución. Procesal</t>
+  </si>
+  <si>
+    <t>62723</t>
+  </si>
+  <si>
+    <t>Resolucion. Procesal 08/11/2021 Acuerdo requerir de pago al ejecutado ANTONIO MANZANO LOPEZ por la cantidad de 44477,80 €r reclamada en concepto de principal e intereses devengados, en su caso, hasta la fecha de la demanda mas otros 13343,34 €</t>
   </si>
   <si>
     <t>99082</t>
@@ -281,18 +296,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F8A6F2B-2D81-48CA-A053-D820005EFE4D}" name="Errores" displayName="Errores" ref="A1:I29" totalsRowShown="0">
-  <autoFilter ref="A1:I29" xr:uid="{9F8A6F2B-2D81-48CA-A053-D820005EFE4D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36FE355A-54C9-4305-9796-EE15A19AD4D1}" name="Errores" displayName="Errores" ref="A1:I22" totalsRowShown="0">
+  <autoFilter ref="A1:I22" xr:uid="{36FE355A-54C9-4305-9796-EE15A19AD4D1}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{CF147C58-B882-4A3C-A85E-99A27118A2C5}" name="GrupoUnion"/>
-    <tableColumn id="2" xr3:uid="{D7ED0059-3F49-425A-84B3-2805F296E9A8}" name="OrdenUnion"/>
-    <tableColumn id="3" xr3:uid="{6A566DB1-BE29-4A67-A91A-161AB4B76E74}" name="ResumenUnion"/>
-    <tableColumn id="4" xr3:uid="{39F3D718-456A-44AD-B8AA-B96A93A44340}" name="Id"/>
-    <tableColumn id="5" xr3:uid="{944A2C61-231C-478B-BD38-1C63BDDD0377}" name="IdDelPJ"/>
-    <tableColumn id="6" xr3:uid="{BE128D40-2D24-4786-88B4-D8AB3DB11437}" name="TipoDocumentalSVH"/>
-    <tableColumn id="7" xr3:uid="{32A064F2-A68F-4998-BC94-F5A8C72FC6FB}" name="EmailIdKey"/>
-    <tableColumn id="8" xr3:uid="{9FF54A0B-FF49-4A10-B68C-BEA085065EA7}" name="ResumenSolicitud"/>
-    <tableColumn id="9" xr3:uid="{598FF173-857C-4867-A959-D3FED56EAE3B}" name="FechaUnion"/>
+    <tableColumn id="1" xr3:uid="{7CFFD4A4-D80E-4B32-94AC-55492D2D4D4E}" name="GrupoUnion"/>
+    <tableColumn id="2" xr3:uid="{2D06A604-6BAF-4203-A67E-63C691B7F3C2}" name="OrdenUnion"/>
+    <tableColumn id="3" xr3:uid="{952CA88A-29AB-42C5-A1D5-EA2114C0C00E}" name="ResumenUnion"/>
+    <tableColumn id="4" xr3:uid="{05208F0A-6C47-4B8E-BFB5-5881506447BB}" name="Id"/>
+    <tableColumn id="5" xr3:uid="{C7D6BD75-9218-43DB-8D01-DFC6F9F0D5E4}" name="IdDelPJ"/>
+    <tableColumn id="6" xr3:uid="{60744B96-52EA-42C7-B6CC-44D855907203}" name="TipoDocumentalSVH"/>
+    <tableColumn id="7" xr3:uid="{E0A0BB55-4959-44FE-B247-3167F95108D0}" name="EmailIdKey"/>
+    <tableColumn id="8" xr3:uid="{FEDCD00A-338F-4620-AE3D-715922A78F95}" name="ResumenSolicitud"/>
+    <tableColumn id="9" xr3:uid="{CCD31FF4-EEF0-422E-8803-AA8A5ACB03D9}" name="FechaUnion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -583,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +673,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -670,13 +685,13 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -684,25 +699,25 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -710,25 +725,25 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -736,25 +751,25 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -762,25 +777,25 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -788,25 +803,25 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -814,25 +829,25 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -840,25 +855,25 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -866,25 +881,25 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
       <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
         <v>32</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -892,25 +907,25 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
         <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -918,25 +933,25 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
         <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -944,103 +959,103 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1048,25 +1063,25 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1074,25 +1089,25 @@
         <v>1</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1100,25 +1115,25 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1126,25 +1141,25 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1152,207 +1167,25 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/ErrorUnion.xlsx
+++ b/ErrorUnion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Robots\uipath\RPA3 - OCEANS\ACTFINAN-GBO_Descarga_Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Robots\uipath\RPA2 - OCEANS - Subida a HRC\ACTFINAN-GBO_Descarga_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44FA18F-BC92-48C9-99D5-AE1572734F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD02EBD-DB4F-456D-BC69-3213D902689B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="2160" windowWidth="15375" windowHeight="4515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>GrupoUnion</t>
   </si>
@@ -49,157 +49,148 @@
     <t>FechaUnion</t>
   </si>
   <si>
-    <t>102900</t>
-  </si>
-  <si>
-    <t>6900/01364783</t>
+    <t>100486</t>
+  </si>
+  <si>
+    <t>3350/01499297</t>
+  </si>
+  <si>
+    <t>Diligencia. Ordenación</t>
+  </si>
+  <si>
+    <t>64994</t>
+  </si>
+  <si>
+    <t>Diligencia. Ordenacion 21/03/2022 Se acuerda dar cuenta a la Juez para que pueda apreciar el posible caracter abusivo de alguna de las clausulas que constituya el fundamento de la peticion monitoria</t>
+  </si>
+  <si>
+    <t>60443</t>
+  </si>
+  <si>
+    <t>6558/01343698</t>
+  </si>
+  <si>
+    <t>Requerimiento. Pago</t>
+  </si>
+  <si>
+    <t>40143</t>
+  </si>
+  <si>
+    <t>Requerimiento 22/03/2022 acuerda notificacion por edictos</t>
+  </si>
+  <si>
+    <t>86801</t>
+  </si>
+  <si>
+    <t>0485/00973267</t>
   </si>
   <si>
     <t>Resolución. Averiguación. Patrimonial</t>
   </si>
   <si>
-    <t>66332</t>
-  </si>
-  <si>
-    <t>Resolucion. Averiguacion. Patrimonial 22/08/2022 Consulta integral patrimonio</t>
-  </si>
-  <si>
-    <t>102901</t>
-  </si>
-  <si>
-    <t>102902</t>
-  </si>
-  <si>
-    <t>102903</t>
-  </si>
-  <si>
-    <t>Diligencia. Ordenación</t>
-  </si>
-  <si>
-    <t>Diligencia. Ordenacion 29/07/2022 De conformidad con lo interesado, dandose los requisitos establecidos en el articulo 590 de la Ley de Enjuiciamiento Civil y segun los convenios de colaboracion celebrados entre el Consejo General del Poder Judicial y diferentes organismos publicos, acuerdo el acceso por funcionarios autorizados, a traves del Punto Neutro Judicial, a la base de datos de los ejecutados a fin de averiguar bienes susceptibles de embargo y a los datos de la TGSS para averiguacion de la situacion laboral de MARICK THIANE, EL HADJI DIOP y MOUSSA DIOP. Con la notificacion de la presente resolucion doy traslado a las partes de los datos obtenidos, en cuanto son relevantes al objeto de la ejecucion, a fin de que insten lo que a su derecho convenga.</t>
-  </si>
-  <si>
-    <t>102904</t>
-  </si>
-  <si>
-    <t>Resolucion. Averiguacion. Patrimonial 22/08/2022 Situaciones laborales</t>
-  </si>
-  <si>
-    <t>102905</t>
-  </si>
-  <si>
-    <t>Resolucion. Averiguacion. Patrimonial 22/08/2022 Situaciones labortales</t>
-  </si>
-  <si>
-    <t>102906</t>
-  </si>
-  <si>
-    <t>26481</t>
-  </si>
-  <si>
-    <t>4554/01360187</t>
+    <t>14695</t>
+  </si>
+  <si>
+    <t>consulta integral patrimonio</t>
+  </si>
+  <si>
+    <t>86802</t>
+  </si>
+  <si>
+    <t>86803</t>
+  </si>
+  <si>
+    <t>86804</t>
+  </si>
+  <si>
+    <t>2972/01027020</t>
+  </si>
+  <si>
+    <t>14696</t>
+  </si>
+  <si>
+    <t>86805</t>
+  </si>
+  <si>
+    <t>86806</t>
+  </si>
+  <si>
+    <t>86807</t>
+  </si>
+  <si>
+    <t>86808</t>
   </si>
   <si>
     <t>Justificante. Notificacion. Juzgado</t>
   </si>
   <si>
-    <t>16620</t>
-  </si>
-  <si>
-    <t>Justificante. Notificacion. Juzgado Caratula Lexnet 17/12/2021 DILIGENCIA ORDENACION ACUERDA EXHORTO</t>
-  </si>
-  <si>
-    <t>35536</t>
-  </si>
-  <si>
-    <t>0519/01450861</t>
-  </si>
-  <si>
-    <t>Mandamiento. Expedición. Mandamientos</t>
-  </si>
-  <si>
-    <t>23417</t>
-  </si>
-  <si>
-    <t>Mandamiento diligenciado</t>
-  </si>
-  <si>
-    <t>81113</t>
-  </si>
-  <si>
-    <t>9312/01448198</t>
-  </si>
-  <si>
-    <t>53785</t>
-  </si>
-  <si>
-    <t>Justificante Notificacion juzgado 10/06/2022 DIOR de 09/06/2022 Notifica resolucion no definitiva</t>
-  </si>
-  <si>
-    <t>89083</t>
-  </si>
-  <si>
-    <t>6530/01477293</t>
-  </si>
-  <si>
-    <t>58176</t>
-  </si>
-  <si>
-    <t>Justificante Notificacion Juzgado 05/07/2022 LexNET SENTENCIA 00054/2022 Est.Resol:Publicada</t>
-  </si>
-  <si>
-    <t>90057</t>
-  </si>
-  <si>
-    <t>8585/01350320</t>
-  </si>
-  <si>
-    <t>Edicto</t>
-  </si>
-  <si>
-    <t>58658</t>
-  </si>
-  <si>
-    <t>Justificante Notificacion juzgado 07/07/2022 LexNET</t>
-  </si>
-  <si>
-    <t>98687</t>
-  </si>
-  <si>
-    <t>6621/01507767</t>
-  </si>
-  <si>
-    <t>Escritura. Poderes</t>
-  </si>
-  <si>
-    <t>63289</t>
-  </si>
-  <si>
-    <t>98690</t>
-  </si>
-  <si>
-    <t>99875</t>
-  </si>
-  <si>
-    <t>4245/01514884</t>
-  </si>
-  <si>
-    <t>63928</t>
-  </si>
-  <si>
-    <t>Edicto 25/07/2022 PROCEDIMIENTO Concursal Numero: 608/2022 NIG: 0704047120220001512 RESOLUCIÓN PROCESAL Auto Fecha: 13/07/2022 Objeto de la publicacion edictal: Notificacion Se hace saber que, para conocer integramente la resolucion o resoluciones a que se refiere el edicto y demas actuaciones del procedimiento indicado, podra dirigirse a este organo u oficina judicial.</t>
-  </si>
-  <si>
-    <t>99881</t>
-  </si>
-  <si>
-    <t>1420/01514885</t>
-  </si>
-  <si>
-    <t>63934</t>
-  </si>
-  <si>
-    <t>Edicto 12/07/2022 BOE: DESTINATARIOS JOSE RAMÓN ARES SUÁREZ Se hace saber que, para conocer integramente la resolucion o resoluciones a que se refiere el edicto y demas actuaciones del procedimiento indicado, podra dirigirse a este organo u oficina judicial.</t>
+    <t>caratula lexnet</t>
+  </si>
+  <si>
+    <t>86857</t>
+  </si>
+  <si>
+    <t>3278/00877645</t>
+  </si>
+  <si>
+    <t>14939</t>
+  </si>
+  <si>
+    <t>Resultado Aeriguacion Patrimonial</t>
+  </si>
+  <si>
+    <t>86873</t>
+  </si>
+  <si>
+    <t>Justificante. Transferencia</t>
+  </si>
+  <si>
+    <t>Transferencia de 325,27 euros</t>
+  </si>
+  <si>
+    <t>86874</t>
+  </si>
+  <si>
+    <t>transferencia 118,17 euros</t>
+  </si>
+  <si>
+    <t>97916</t>
+  </si>
+  <si>
+    <t>0664/01464976</t>
+  </si>
+  <si>
+    <t>Resolución. Procesal</t>
+  </si>
+  <si>
+    <t>62723</t>
+  </si>
+  <si>
+    <t>Resolucion. Procesal 08/11/2021 Acuerdo requerir de pago al ejecutado ANTONIO MANZANO LOPEZ por la cantidad de 44477,80 €r reclamada en concepto de principal e intereses devengados, en su caso, hasta la fecha de la demanda mas otros 13343,34 €</t>
+  </si>
+  <si>
+    <t>99082</t>
+  </si>
+  <si>
+    <t>4469/01514389</t>
+  </si>
+  <si>
+    <t>Proyecto. Inventario. Lista. Acreedores</t>
+  </si>
+  <si>
+    <t>63509</t>
+  </si>
+  <si>
+    <t>Lista acreedores 481/2022</t>
+  </si>
+  <si>
+    <t>99084</t>
+  </si>
+  <si>
+    <t>Certificación. Deuda</t>
+  </si>
+  <si>
+    <t>Certificacion deuda a 03/08/2022 Resumen negocio BBVA</t>
   </si>
 </sst>
 </file>
@@ -254,18 +245,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07FE8000-9E7D-4D84-B94B-C6318F78070A}" name="Errores" displayName="Errores" ref="A1:I17" totalsRowShown="0">
-  <autoFilter ref="A1:I17" xr:uid="{07FE8000-9E7D-4D84-B94B-C6318F78070A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A91025D-8A7B-4A26-8C91-0FAC3E0C8D64}" name="Errores" displayName="Errores" ref="A1:I17" totalsRowShown="0">
+  <autoFilter ref="A1:I17" xr:uid="{8A91025D-8A7B-4A26-8C91-0FAC3E0C8D64}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C0459F7C-E335-4F87-AC78-CD6D525F94EC}" name="GrupoUnion"/>
-    <tableColumn id="2" xr3:uid="{FA35587A-3DFC-42AB-A157-4C59843FEA8C}" name="OrdenUnion"/>
-    <tableColumn id="3" xr3:uid="{4D8F184F-58A1-4729-8196-5769AC8A9D95}" name="ResumenUnion"/>
-    <tableColumn id="4" xr3:uid="{BDB82D2F-3734-4565-90A8-D8E16354DE37}" name="Id"/>
-    <tableColumn id="5" xr3:uid="{DF56A1A7-A35E-40A1-BE70-161B4C2C1456}" name="IdDelPJ"/>
-    <tableColumn id="6" xr3:uid="{26F6B966-760D-42AA-80D4-D985A681D2E5}" name="TipoDocumentalSVH"/>
-    <tableColumn id="7" xr3:uid="{26C42846-FA60-4753-A774-EE36CFE8DB11}" name="EmailIdKey"/>
-    <tableColumn id="8" xr3:uid="{658A60B7-2526-4EA0-97F7-716E34D199C7}" name="ResumenSolicitud"/>
-    <tableColumn id="9" xr3:uid="{C33D79F0-F2CD-4415-A327-F0B7D6EFDAFA}" name="FechaUnion"/>
+    <tableColumn id="1" xr3:uid="{175F4E28-6EEE-4651-8525-347812FE1DDA}" name="GrupoUnion"/>
+    <tableColumn id="2" xr3:uid="{4EF6B272-0BCE-431E-B2CF-BF6F73BEF2FE}" name="OrdenUnion"/>
+    <tableColumn id="3" xr3:uid="{1E96ADFC-0040-4F8D-A76E-4B44B95F56FD}" name="ResumenUnion"/>
+    <tableColumn id="4" xr3:uid="{BB5AB072-BEF2-471A-9A96-5EB13DC6E18A}" name="Id"/>
+    <tableColumn id="5" xr3:uid="{306B5832-040A-4B3F-AE25-FB6979D36E29}" name="IdDelPJ"/>
+    <tableColumn id="6" xr3:uid="{C2E232D7-A7BC-4C7A-BD7B-3174CC063F13}" name="TipoDocumentalSVH"/>
+    <tableColumn id="7" xr3:uid="{4DFB1CAD-4B28-4EE9-9C8C-417043B68022}" name="EmailIdKey"/>
+    <tableColumn id="8" xr3:uid="{91914783-E759-43C4-AE37-5E46DE0A8EBB}" name="ResumenSolicitud"/>
+    <tableColumn id="9" xr3:uid="{57218A37-69A3-4028-8D11-95312C037C3A}" name="FechaUnion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -605,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -631,25 +622,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -663,19 +654,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -683,25 +674,25 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -709,25 +700,25 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -735,25 +726,25 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -767,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -787,25 +778,25 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -813,25 +804,25 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -839,103 +830,103 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
         <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -943,25 +934,25 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
         <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -969,25 +960,25 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
         <v>52</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>53</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -995,25 +986,25 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
         <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/ErrorUnion.xlsx
+++ b/ErrorUnion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Robots\uipath\RPA3 - OCEANS\ACTFINAN-GBO_Descarga_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC8C63B-A1B1-4512-853D-912E2017419B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44FA18F-BC92-48C9-99D5-AE1572734F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2745" yWindow="2160" windowWidth="15375" windowHeight="4515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>GrupoUnion</t>
   </si>
@@ -49,199 +49,157 @@
     <t>FechaUnion</t>
   </si>
   <si>
-    <t>100486</t>
-  </si>
-  <si>
-    <t>3350/01499297</t>
+    <t>102900</t>
+  </si>
+  <si>
+    <t>6900/01364783</t>
+  </si>
+  <si>
+    <t>Resolución. Averiguación. Patrimonial</t>
+  </si>
+  <si>
+    <t>66332</t>
+  </si>
+  <si>
+    <t>Resolucion. Averiguacion. Patrimonial 22/08/2022 Consulta integral patrimonio</t>
+  </si>
+  <si>
+    <t>102901</t>
+  </si>
+  <si>
+    <t>102902</t>
+  </si>
+  <si>
+    <t>102903</t>
   </si>
   <si>
     <t>Diligencia. Ordenación</t>
   </si>
   <si>
-    <t>64994</t>
-  </si>
-  <si>
-    <t>Diligencia. Ordenacion 21/03/2022 Se acuerda dar cuenta a la Juez para que pueda apreciar el posible caracter abusivo de alguna de las clausulas que constituya el fundamento de la peticion monitoria</t>
-  </si>
-  <si>
-    <t>101571</t>
-  </si>
-  <si>
-    <t>6533/01364534</t>
-  </si>
-  <si>
-    <t>65420</t>
-  </si>
-  <si>
-    <t>Diligencia. Ordenacion 10/06/2022 Se tienen por hechas las manifestaciones , por evacuado el requerimiento efectuado y se tiene por comparecido y parte apelante a DIVARIAN PROPIEDAD, SA, segun acredita mediante copia de la escritura de poder para pleitos que se une a las actuaciones a los efectos oportunos, entiendanse con el las sucesivas diligencias.</t>
-  </si>
-  <si>
-    <t>101572</t>
-  </si>
-  <si>
-    <t>Escritos. Trámite</t>
-  </si>
-  <si>
-    <t>Escritos. Tramite 13/06/2022 BBVA solicitud personacion</t>
-  </si>
-  <si>
-    <t>101573</t>
-  </si>
-  <si>
-    <t>Diligencia. Ordenacion 16/06/2022 Se tienen por hechas las manifestaciones, y visto lo actuado, se deja sin efecto la diligencia de ordenacion de fecha 10/06/2022 y estese a lo acordado en diligencia de ordenacion de fecha 30/05/2022, en la que se tuvo a BBVA, por comparecido como parte apelante.</t>
-  </si>
-  <si>
-    <t>60443</t>
-  </si>
-  <si>
-    <t>6558/01343698</t>
-  </si>
-  <si>
-    <t>Requerimiento. Pago</t>
-  </si>
-  <si>
-    <t>40143</t>
-  </si>
-  <si>
-    <t>Requerimiento 22/03/2022 acuerda notificacion por edictos</t>
-  </si>
-  <si>
-    <t>86801</t>
-  </si>
-  <si>
-    <t>0485/00973267</t>
-  </si>
-  <si>
-    <t>Resolución. Averiguación. Patrimonial</t>
-  </si>
-  <si>
-    <t>14695</t>
-  </si>
-  <si>
-    <t>consulta integral patrimonio</t>
-  </si>
-  <si>
-    <t>86802</t>
-  </si>
-  <si>
-    <t>86803</t>
-  </si>
-  <si>
-    <t>86804</t>
-  </si>
-  <si>
-    <t>2972/01027020</t>
-  </si>
-  <si>
-    <t>14696</t>
-  </si>
-  <si>
-    <t>86805</t>
-  </si>
-  <si>
-    <t>86806</t>
-  </si>
-  <si>
-    <t>86807</t>
-  </si>
-  <si>
-    <t>86808</t>
+    <t>Diligencia. Ordenacion 29/07/2022 De conformidad con lo interesado, dandose los requisitos establecidos en el articulo 590 de la Ley de Enjuiciamiento Civil y segun los convenios de colaboracion celebrados entre el Consejo General del Poder Judicial y diferentes organismos publicos, acuerdo el acceso por funcionarios autorizados, a traves del Punto Neutro Judicial, a la base de datos de los ejecutados a fin de averiguar bienes susceptibles de embargo y a los datos de la TGSS para averiguacion de la situacion laboral de MARICK THIANE, EL HADJI DIOP y MOUSSA DIOP. Con la notificacion de la presente resolucion doy traslado a las partes de los datos obtenidos, en cuanto son relevantes al objeto de la ejecucion, a fin de que insten lo que a su derecho convenga.</t>
+  </si>
+  <si>
+    <t>102904</t>
+  </si>
+  <si>
+    <t>Resolucion. Averiguacion. Patrimonial 22/08/2022 Situaciones laborales</t>
+  </si>
+  <si>
+    <t>102905</t>
+  </si>
+  <si>
+    <t>Resolucion. Averiguacion. Patrimonial 22/08/2022 Situaciones labortales</t>
+  </si>
+  <si>
+    <t>102906</t>
+  </si>
+  <si>
+    <t>26481</t>
+  </si>
+  <si>
+    <t>4554/01360187</t>
   </si>
   <si>
     <t>Justificante. Notificacion. Juzgado</t>
   </si>
   <si>
-    <t>caratula lexnet</t>
-  </si>
-  <si>
-    <t>86857</t>
-  </si>
-  <si>
-    <t>3278/00877645</t>
-  </si>
-  <si>
-    <t>14939</t>
-  </si>
-  <si>
-    <t>Resultado Aeriguacion Patrimonial</t>
-  </si>
-  <si>
-    <t>86873</t>
-  </si>
-  <si>
-    <t>Justificante. Transferencia</t>
-  </si>
-  <si>
-    <t>Transferencia de 325,27 euros</t>
-  </si>
-  <si>
-    <t>86874</t>
-  </si>
-  <si>
-    <t>transferencia 118,17 euros</t>
-  </si>
-  <si>
-    <t>91398</t>
-  </si>
-  <si>
-    <t>6415/01411187</t>
-  </si>
-  <si>
-    <t>59377</t>
-  </si>
-  <si>
-    <t>Diligencia. Ordenacion 07/07/2022 Por presentado el anterior escrito por la Procuradora MATILDE RIAL TRUEBA, unase a los autos de su razon; se tiene por comparecida y parte a dicha Procuradora, en nombre y representacion de INVESTCAPITAL LTD, con la que se entenderan todas las notificaciones y actuaciones, en la forma prevenida por la Ley. Se tienen por comunicados los creditos por dicha Sociedad, adquiridos por cesion de Caixabank Consumer Finance EFC S.A., lo que se pone en conocimiento de la Administracion concursal, a los efectos legales procedentes.</t>
-  </si>
-  <si>
-    <t>91750</t>
-  </si>
-  <si>
-    <t>4021/00090412</t>
-  </si>
-  <si>
-    <t>59570</t>
-  </si>
-  <si>
-    <t>Diligencia. Ordenacion. 08/07/2022. Conforme a lo solicitado, procedase a la averiguacion telematica a traves del Punto Neutro Judicial y TGSS de bienes o derechos de los ejecutados de caracter economico y patrimonial, dando traslado de su resultado al ejecutante haciendole saber que conforme a la L.O. 15/1999 de 13 de diciembre de Proteccion de Datos de Caracter personal y demas legislacion vigente en la materia, los datos contenidos en esta comunicacion y en la documentacion adjunta, son confidenciales, quedando prohibida su transmision o comunicacion publica por cualquier medio o procedimiento, y debiendo ser tratados exclusivamente para los fines propios de la Administracion de Justicia.</t>
-  </si>
-  <si>
-    <t>97916</t>
-  </si>
-  <si>
-    <t>0664/01464976</t>
-  </si>
-  <si>
-    <t>Resolución. Procesal</t>
-  </si>
-  <si>
-    <t>62723</t>
-  </si>
-  <si>
-    <t>Resolucion. Procesal 08/11/2021 Acuerdo requerir de pago al ejecutado ANTONIO MANZANO LOPEZ por la cantidad de 44477,80 €r reclamada en concepto de principal e intereses devengados, en su caso, hasta la fecha de la demanda mas otros 13343,34 €</t>
-  </si>
-  <si>
-    <t>99082</t>
-  </si>
-  <si>
-    <t>4469/01514389</t>
-  </si>
-  <si>
-    <t>Proyecto. Inventario. Lista. Acreedores</t>
-  </si>
-  <si>
-    <t>63509</t>
-  </si>
-  <si>
-    <t>Lista acreedores 481/2022</t>
-  </si>
-  <si>
-    <t>99084</t>
-  </si>
-  <si>
-    <t>Certificación. Deuda</t>
-  </si>
-  <si>
-    <t>Certificacion deuda a 03/08/2022 Resumen negocio BBVA</t>
+    <t>16620</t>
+  </si>
+  <si>
+    <t>Justificante. Notificacion. Juzgado Caratula Lexnet 17/12/2021 DILIGENCIA ORDENACION ACUERDA EXHORTO</t>
+  </si>
+  <si>
+    <t>35536</t>
+  </si>
+  <si>
+    <t>0519/01450861</t>
+  </si>
+  <si>
+    <t>Mandamiento. Expedición. Mandamientos</t>
+  </si>
+  <si>
+    <t>23417</t>
+  </si>
+  <si>
+    <t>Mandamiento diligenciado</t>
+  </si>
+  <si>
+    <t>81113</t>
+  </si>
+  <si>
+    <t>9312/01448198</t>
+  </si>
+  <si>
+    <t>53785</t>
+  </si>
+  <si>
+    <t>Justificante Notificacion juzgado 10/06/2022 DIOR de 09/06/2022 Notifica resolucion no definitiva</t>
+  </si>
+  <si>
+    <t>89083</t>
+  </si>
+  <si>
+    <t>6530/01477293</t>
+  </si>
+  <si>
+    <t>58176</t>
+  </si>
+  <si>
+    <t>Justificante Notificacion Juzgado 05/07/2022 LexNET SENTENCIA 00054/2022 Est.Resol:Publicada</t>
+  </si>
+  <si>
+    <t>90057</t>
+  </si>
+  <si>
+    <t>8585/01350320</t>
+  </si>
+  <si>
+    <t>Edicto</t>
+  </si>
+  <si>
+    <t>58658</t>
+  </si>
+  <si>
+    <t>Justificante Notificacion juzgado 07/07/2022 LexNET</t>
+  </si>
+  <si>
+    <t>98687</t>
+  </si>
+  <si>
+    <t>6621/01507767</t>
+  </si>
+  <si>
+    <t>Escritura. Poderes</t>
+  </si>
+  <si>
+    <t>63289</t>
+  </si>
+  <si>
+    <t>98690</t>
+  </si>
+  <si>
+    <t>99875</t>
+  </si>
+  <si>
+    <t>4245/01514884</t>
+  </si>
+  <si>
+    <t>63928</t>
+  </si>
+  <si>
+    <t>Edicto 25/07/2022 PROCEDIMIENTO Concursal Numero: 608/2022 NIG: 0704047120220001512 RESOLUCIÓN PROCESAL Auto Fecha: 13/07/2022 Objeto de la publicacion edictal: Notificacion Se hace saber que, para conocer integramente la resolucion o resoluciones a que se refiere el edicto y demas actuaciones del procedimiento indicado, podra dirigirse a este organo u oficina judicial.</t>
+  </si>
+  <si>
+    <t>99881</t>
+  </si>
+  <si>
+    <t>1420/01514885</t>
+  </si>
+  <si>
+    <t>63934</t>
+  </si>
+  <si>
+    <t>Edicto 12/07/2022 BOE: DESTINATARIOS JOSE RAMÓN ARES SUÁREZ Se hace saber que, para conocer integramente la resolucion o resoluciones a que se refiere el edicto y demas actuaciones del procedimiento indicado, podra dirigirse a este organo u oficina judicial.</t>
   </si>
 </sst>
 </file>
@@ -296,18 +254,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36FE355A-54C9-4305-9796-EE15A19AD4D1}" name="Errores" displayName="Errores" ref="A1:I22" totalsRowShown="0">
-  <autoFilter ref="A1:I22" xr:uid="{36FE355A-54C9-4305-9796-EE15A19AD4D1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07FE8000-9E7D-4D84-B94B-C6318F78070A}" name="Errores" displayName="Errores" ref="A1:I17" totalsRowShown="0">
+  <autoFilter ref="A1:I17" xr:uid="{07FE8000-9E7D-4D84-B94B-C6318F78070A}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7CFFD4A4-D80E-4B32-94AC-55492D2D4D4E}" name="GrupoUnion"/>
-    <tableColumn id="2" xr3:uid="{2D06A604-6BAF-4203-A67E-63C691B7F3C2}" name="OrdenUnion"/>
-    <tableColumn id="3" xr3:uid="{952CA88A-29AB-42C5-A1D5-EA2114C0C00E}" name="ResumenUnion"/>
-    <tableColumn id="4" xr3:uid="{05208F0A-6C47-4B8E-BFB5-5881506447BB}" name="Id"/>
-    <tableColumn id="5" xr3:uid="{C7D6BD75-9218-43DB-8D01-DFC6F9F0D5E4}" name="IdDelPJ"/>
-    <tableColumn id="6" xr3:uid="{60744B96-52EA-42C7-B6CC-44D855907203}" name="TipoDocumentalSVH"/>
-    <tableColumn id="7" xr3:uid="{E0A0BB55-4959-44FE-B247-3167F95108D0}" name="EmailIdKey"/>
-    <tableColumn id="8" xr3:uid="{FEDCD00A-338F-4620-AE3D-715922A78F95}" name="ResumenSolicitud"/>
-    <tableColumn id="9" xr3:uid="{CCD31FF4-EEF0-422E-8803-AA8A5ACB03D9}" name="FechaUnion"/>
+    <tableColumn id="1" xr3:uid="{C0459F7C-E335-4F87-AC78-CD6D525F94EC}" name="GrupoUnion"/>
+    <tableColumn id="2" xr3:uid="{FA35587A-3DFC-42AB-A157-4C59843FEA8C}" name="OrdenUnion"/>
+    <tableColumn id="3" xr3:uid="{4D8F184F-58A1-4729-8196-5769AC8A9D95}" name="ResumenUnion"/>
+    <tableColumn id="4" xr3:uid="{BDB82D2F-3734-4565-90A8-D8E16354DE37}" name="Id"/>
+    <tableColumn id="5" xr3:uid="{DF56A1A7-A35E-40A1-BE70-161B4C2C1456}" name="IdDelPJ"/>
+    <tableColumn id="6" xr3:uid="{26F6B966-760D-42AA-80D4-D985A681D2E5}" name="TipoDocumentalSVH"/>
+    <tableColumn id="7" xr3:uid="{26C42846-FA60-4753-A774-EE36CFE8DB11}" name="EmailIdKey"/>
+    <tableColumn id="8" xr3:uid="{658A60B7-2526-4EA0-97F7-716E34D199C7}" name="ResumenSolicitud"/>
+    <tableColumn id="9" xr3:uid="{C33D79F0-F2CD-4415-A327-F0B7D6EFDAFA}" name="FechaUnion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -598,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -673,25 +631,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -699,25 +657,25 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -731,19 +689,19 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -751,25 +709,25 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -777,25 +735,25 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -809,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -829,25 +787,25 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -861,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -881,25 +839,25 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -907,25 +865,25 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -933,25 +891,25 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -959,233 +917,103 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
         <v>59</v>
-      </c>
-      <c r="H19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/ErrorUnion.xlsx
+++ b/ErrorUnion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Robots\uipath\RPA3 - OCEANS\ACTFINAN-GBO_Descarga_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E82CE0-E126-4EA7-AF22-3D729ECB6C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD8AD6D-D5E9-4C31-A3BE-B8F499EAAE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2745" yWindow="2160" windowWidth="15375" windowHeight="4515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,19 +49,19 @@
     <t>FechaUnion</t>
   </si>
   <si>
-    <t>116939</t>
-  </si>
-  <si>
-    <t>8753/01304100</t>
+    <t>118748</t>
+  </si>
+  <si>
+    <t>5533/00894909</t>
   </si>
   <si>
     <t>Justificante. Notificacion. Juzgado</t>
   </si>
   <si>
-    <t>74534</t>
-  </si>
-  <si>
-    <t>Justificante Notificacion juzgado 10/10/2022 LEXNETby</t>
+    <t>75594</t>
+  </si>
+  <si>
+    <t>Justificante Notificacion juzgado 13/10/2022 LexNET - Notificacion</t>
   </si>
 </sst>
 </file>
@@ -116,18 +116,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F66F577-8474-4F1E-98C5-91228534299F}" name="Errores" displayName="Errores" ref="A1:I2" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{1F66F577-8474-4F1E-98C5-91228534299F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25633933-F199-4F5C-A26F-FC738E274430}" name="Errores" displayName="Errores" ref="A1:I2" totalsRowShown="0">
+  <autoFilter ref="A1:I2" xr:uid="{25633933-F199-4F5C-A26F-FC738E274430}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{622798DE-FC88-451B-B26E-DF09BCBF61D4}" name="GrupoUnion"/>
-    <tableColumn id="2" xr3:uid="{29337782-4423-4713-AFFC-E0DA69AAE487}" name="OrdenUnion"/>
-    <tableColumn id="3" xr3:uid="{B581DA4F-FFFC-466C-8D25-72CBA274CEA3}" name="ResumenUnion"/>
-    <tableColumn id="4" xr3:uid="{5349FD5B-BA24-4C55-82DC-D45FAC0890CA}" name="Id"/>
-    <tableColumn id="5" xr3:uid="{8F6630F9-EF3E-4763-87C7-3A0B689008D6}" name="IdDelPJ"/>
-    <tableColumn id="6" xr3:uid="{D0467166-7B1D-40C0-A53A-BA3A4EC577A3}" name="TipoDocumentalSVH"/>
-    <tableColumn id="7" xr3:uid="{13F86E34-D52E-445E-A5E4-44687049BF74}" name="EmailIdKey"/>
-    <tableColumn id="8" xr3:uid="{82C739EF-E804-4AAA-83A6-BF94A8D73A60}" name="ResumenSolicitud"/>
-    <tableColumn id="9" xr3:uid="{D410757F-147A-4564-9AB6-20BEF5E5F0A3}" name="FechaUnion"/>
+    <tableColumn id="1" xr3:uid="{9F38563F-1EDA-4036-91D6-DEAC01BACABE}" name="GrupoUnion"/>
+    <tableColumn id="2" xr3:uid="{A9174CCC-D905-481F-9C2C-08EE37A05D08}" name="OrdenUnion"/>
+    <tableColumn id="3" xr3:uid="{8A5D1CBD-3728-48BC-9F3C-B30699CA61EB}" name="ResumenUnion"/>
+    <tableColumn id="4" xr3:uid="{E54199FC-AACE-4A8A-A1D5-214A268B60BD}" name="Id"/>
+    <tableColumn id="5" xr3:uid="{58EC717A-330B-424A-8140-0EC111E6FDF3}" name="IdDelPJ"/>
+    <tableColumn id="6" xr3:uid="{E0816896-1EBC-4C91-B5AE-1AD2A819478D}" name="TipoDocumentalSVH"/>
+    <tableColumn id="7" xr3:uid="{B25AA7CD-62E0-4868-AB93-53C8BD0E38B2}" name="EmailIdKey"/>
+    <tableColumn id="8" xr3:uid="{66B5DA81-A64D-4557-8A3E-5F1465D87BD1}" name="ResumenSolicitud"/>
+    <tableColumn id="9" xr3:uid="{BE2D2527-E5C8-4442-933F-3EF5677845E1}" name="FechaUnion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/ErrorUnion.xlsx
+++ b/ErrorUnion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Robots\uipath\RPA3 - OCEANS\ACTFINAN-GBO_Descarga_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD8AD6D-D5E9-4C31-A3BE-B8F499EAAE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEDF5CB-A04A-4022-B661-733620FE6F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="2160" windowWidth="15375" windowHeight="4515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2190" windowWidth="15360" windowHeight="4515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>GrupoUnion</t>
   </si>
@@ -49,19 +49,43 @@
     <t>FechaUnion</t>
   </si>
   <si>
-    <t>118748</t>
-  </si>
-  <si>
-    <t>5533/00894909</t>
-  </si>
-  <si>
-    <t>Justificante. Notificacion. Juzgado</t>
-  </si>
-  <si>
-    <t>75594</t>
-  </si>
-  <si>
-    <t>Justificante Notificacion juzgado 13/10/2022 LexNET - Notificacion</t>
+    <t>122084</t>
+  </si>
+  <si>
+    <t>3219/01513530</t>
+  </si>
+  <si>
+    <t>Requerimiento. Pago. Negativo</t>
+  </si>
+  <si>
+    <t>77861</t>
+  </si>
+  <si>
+    <t>Requerimiento. Pago. Negativo 19/10/2022 Se ha recibido requerimiento negativo de pago intentado con el deudor LIDIA NOEMI ESPINOLA JARA, dandose traslado a la parte demandante Acuerdo investigar el domicilio del/ de la anterior a traves del Punto Neutro Judicial y con su resultado, remitase de nuevo requerimiento, en su caso.</t>
+  </si>
+  <si>
+    <t>122085</t>
+  </si>
+  <si>
+    <t>Diligencia. Notificación</t>
+  </si>
+  <si>
+    <t>Diligencia. Notificacion 10/10/2022 Negativa</t>
+  </si>
+  <si>
+    <t>122145</t>
+  </si>
+  <si>
+    <t>8189/01341006</t>
+  </si>
+  <si>
+    <t>Diligencia. Ordenación</t>
+  </si>
+  <si>
+    <t>77904</t>
+  </si>
+  <si>
+    <t>Diligencia. Ordenacion 04/02/2019 Plazo de DIEZ dias para que otorgue la representacion procesal a favor del citado Procurador, mediante apud acta ante el Letrado de la Administracion de Justicia de cualquier oficina judicial conforme al art. 24.1 LEC. Y le apercibo, en caso de no verificarlo, de no tenerle por comparecida y parte, ni por formulada oposicion a la ejecucion.</t>
   </si>
 </sst>
 </file>
@@ -116,18 +140,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25633933-F199-4F5C-A26F-FC738E274430}" name="Errores" displayName="Errores" ref="A1:I2" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{25633933-F199-4F5C-A26F-FC738E274430}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB2D3631-9353-406A-978F-31AED528E7CE}" name="Errores" displayName="Errores" ref="A1:I4" totalsRowShown="0">
+  <autoFilter ref="A1:I4" xr:uid="{EB2D3631-9353-406A-978F-31AED528E7CE}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9F38563F-1EDA-4036-91D6-DEAC01BACABE}" name="GrupoUnion"/>
-    <tableColumn id="2" xr3:uid="{A9174CCC-D905-481F-9C2C-08EE37A05D08}" name="OrdenUnion"/>
-    <tableColumn id="3" xr3:uid="{8A5D1CBD-3728-48BC-9F3C-B30699CA61EB}" name="ResumenUnion"/>
-    <tableColumn id="4" xr3:uid="{E54199FC-AACE-4A8A-A1D5-214A268B60BD}" name="Id"/>
-    <tableColumn id="5" xr3:uid="{58EC717A-330B-424A-8140-0EC111E6FDF3}" name="IdDelPJ"/>
-    <tableColumn id="6" xr3:uid="{E0816896-1EBC-4C91-B5AE-1AD2A819478D}" name="TipoDocumentalSVH"/>
-    <tableColumn id="7" xr3:uid="{B25AA7CD-62E0-4868-AB93-53C8BD0E38B2}" name="EmailIdKey"/>
-    <tableColumn id="8" xr3:uid="{66B5DA81-A64D-4557-8A3E-5F1465D87BD1}" name="ResumenSolicitud"/>
-    <tableColumn id="9" xr3:uid="{BE2D2527-E5C8-4442-933F-3EF5677845E1}" name="FechaUnion"/>
+    <tableColumn id="1" xr3:uid="{5F406F4D-A74F-4C49-8AE6-7AEC7EFD4573}" name="GrupoUnion"/>
+    <tableColumn id="2" xr3:uid="{D0C54141-C6D3-4817-8993-C8DA3323C461}" name="OrdenUnion"/>
+    <tableColumn id="3" xr3:uid="{CCE1FBF0-C88B-44A9-BC0E-84E069F9D958}" name="ResumenUnion"/>
+    <tableColumn id="4" xr3:uid="{B4AB50E4-4A80-44C0-9139-99E72C2D741A}" name="Id"/>
+    <tableColumn id="5" xr3:uid="{7CC664F9-6F38-4125-8E30-3134B4674598}" name="IdDelPJ"/>
+    <tableColumn id="6" xr3:uid="{7F07ADD6-2153-4EE4-91A6-BEBA46681EBF}" name="TipoDocumentalSVH"/>
+    <tableColumn id="7" xr3:uid="{35326AC0-995A-4E25-82CD-97C868455837}" name="EmailIdKey"/>
+    <tableColumn id="8" xr3:uid="{E3BE278A-190D-4A9C-A586-21BBCBFCF794}" name="ResumenSolicitud"/>
+    <tableColumn id="9" xr3:uid="{8BAEA0B5-DB18-4E20-AFB9-CA73FB6196C3}" name="FechaUnion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -418,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -467,10 +491,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -486,6 +510,58 @@
       </c>
       <c r="H2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ErrorUnion.xlsx
+++ b/ErrorUnion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Robots\uipath\RPA3 - OCEANS\ACTFINAN-GBO_Descarga_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEDF5CB-A04A-4022-B661-733620FE6F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A15E06-ECD0-4721-98B5-F93C582CA66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2190" windowWidth="15360" windowHeight="4515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>GrupoUnion</t>
   </si>
@@ -49,43 +49,28 @@
     <t>FechaUnion</t>
   </si>
   <si>
-    <t>122084</t>
-  </si>
-  <si>
-    <t>3219/01513530</t>
-  </si>
-  <si>
-    <t>Requerimiento. Pago. Negativo</t>
-  </si>
-  <si>
-    <t>77861</t>
-  </si>
-  <si>
-    <t>Requerimiento. Pago. Negativo 19/10/2022 Se ha recibido requerimiento negativo de pago intentado con el deudor LIDIA NOEMI ESPINOLA JARA, dandose traslado a la parte demandante Acuerdo investigar el domicilio del/ de la anterior a traves del Punto Neutro Judicial y con su resultado, remitase de nuevo requerimiento, en su caso.</t>
-  </si>
-  <si>
-    <t>122085</t>
-  </si>
-  <si>
-    <t>Diligencia. Notificación</t>
-  </si>
-  <si>
-    <t>Diligencia. Notificacion 10/10/2022 Negativa</t>
-  </si>
-  <si>
-    <t>122145</t>
-  </si>
-  <si>
-    <t>8189/01341006</t>
-  </si>
-  <si>
-    <t>Diligencia. Ordenación</t>
-  </si>
-  <si>
-    <t>77904</t>
-  </si>
-  <si>
-    <t>Diligencia. Ordenacion 04/02/2019 Plazo de DIEZ dias para que otorgue la representacion procesal a favor del citado Procurador, mediante apud acta ante el Letrado de la Administracion de Justicia de cualquier oficina judicial conforme al art. 24.1 LEC. Y le apercibo, en caso de no verificarlo, de no tenerle por comparecida y parte, ni por formulada oposicion a la ejecucion.</t>
+    <t>124252</t>
+  </si>
+  <si>
+    <t>5584/01140939</t>
+  </si>
+  <si>
+    <t>Escritos. Trámite</t>
+  </si>
+  <si>
+    <t>79053</t>
+  </si>
+  <si>
+    <t>Escritos. Tramite 27/10/2022 BBVA: Que por medio del presente escrito solicito del Juzgado, SE ENTREGUE A ESTA PARTE EXTRACTO DE LOS MOVIMIENTOS DE LA CUENTA DE CONSIGNACIONES DE ESTE PROCEDIMIENTO.</t>
+  </si>
+  <si>
+    <t>124253</t>
+  </si>
+  <si>
+    <t>Justificante. Presentación.Escritos. Trámite</t>
+  </si>
+  <si>
+    <t>Justificante. Presentacion.Escritos. Tramite 27/10/2022 Mensaje LexNET - Acuse - Escrito. BBVA</t>
   </si>
 </sst>
 </file>
@@ -140,18 +125,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB2D3631-9353-406A-978F-31AED528E7CE}" name="Errores" displayName="Errores" ref="A1:I4" totalsRowShown="0">
-  <autoFilter ref="A1:I4" xr:uid="{EB2D3631-9353-406A-978F-31AED528E7CE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AC7FF1E-08C6-4A0A-8D7E-D355925F4C74}" name="Errores" displayName="Errores" ref="A1:I3" totalsRowShown="0">
+  <autoFilter ref="A1:I3" xr:uid="{9AC7FF1E-08C6-4A0A-8D7E-D355925F4C74}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5F406F4D-A74F-4C49-8AE6-7AEC7EFD4573}" name="GrupoUnion"/>
-    <tableColumn id="2" xr3:uid="{D0C54141-C6D3-4817-8993-C8DA3323C461}" name="OrdenUnion"/>
-    <tableColumn id="3" xr3:uid="{CCE1FBF0-C88B-44A9-BC0E-84E069F9D958}" name="ResumenUnion"/>
-    <tableColumn id="4" xr3:uid="{B4AB50E4-4A80-44C0-9139-99E72C2D741A}" name="Id"/>
-    <tableColumn id="5" xr3:uid="{7CC664F9-6F38-4125-8E30-3134B4674598}" name="IdDelPJ"/>
-    <tableColumn id="6" xr3:uid="{7F07ADD6-2153-4EE4-91A6-BEBA46681EBF}" name="TipoDocumentalSVH"/>
-    <tableColumn id="7" xr3:uid="{35326AC0-995A-4E25-82CD-97C868455837}" name="EmailIdKey"/>
-    <tableColumn id="8" xr3:uid="{E3BE278A-190D-4A9C-A586-21BBCBFCF794}" name="ResumenSolicitud"/>
-    <tableColumn id="9" xr3:uid="{8BAEA0B5-DB18-4E20-AFB9-CA73FB6196C3}" name="FechaUnion"/>
+    <tableColumn id="1" xr3:uid="{C30BFD70-B8EA-4900-B29A-30B9A25505D9}" name="GrupoUnion"/>
+    <tableColumn id="2" xr3:uid="{70A4E092-7217-4986-BE39-662351E2CEA9}" name="OrdenUnion"/>
+    <tableColumn id="3" xr3:uid="{919CBBAC-6C10-4142-B0F1-4120B88EAD75}" name="ResumenUnion"/>
+    <tableColumn id="4" xr3:uid="{1C9AB9EA-F6E8-423B-AA67-7E9D690293C2}" name="Id"/>
+    <tableColumn id="5" xr3:uid="{33FBC990-8AD1-4500-B543-41004B29A010}" name="IdDelPJ"/>
+    <tableColumn id="6" xr3:uid="{82FAC29A-229C-45C3-A353-6EE492E0D415}" name="TipoDocumentalSVH"/>
+    <tableColumn id="7" xr3:uid="{E35E43C9-9EDA-4AC5-B42C-1389D41B0C9E}" name="EmailIdKey"/>
+    <tableColumn id="8" xr3:uid="{5ABDED34-11D5-4B53-B7A6-ABC8F603DBA3}" name="ResumenSolicitud"/>
+    <tableColumn id="9" xr3:uid="{7E060D6B-4A7F-4E21-A323-A396E5DF2ACE}" name="FechaUnion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -442,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -536,32 +521,6 @@
       </c>
       <c r="H3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
